--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H2">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I2">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J2">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N2">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O2">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P2">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q2">
-        <v>0.47813771362</v>
+        <v>0.7259095543151109</v>
       </c>
       <c r="R2">
-        <v>4.30323942258</v>
+        <v>6.533185988835999</v>
       </c>
       <c r="S2">
-        <v>0.004068744935823548</v>
+        <v>0.002293530668167311</v>
       </c>
       <c r="T2">
-        <v>0.004068744935823548</v>
+        <v>0.002293530668167312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H3">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I3">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J3">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>65.548676</v>
       </c>
       <c r="O3">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P3">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q3">
-        <v>5.434837373188</v>
+        <v>7.063867635512444</v>
       </c>
       <c r="R3">
-        <v>48.91353635869199</v>
+        <v>63.57480871961199</v>
       </c>
       <c r="S3">
-        <v>0.04624811306300241</v>
+        <v>0.02231847888158461</v>
       </c>
       <c r="T3">
-        <v>0.04624811306300241</v>
+        <v>0.02231847888158461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H4">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I4">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J4">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N4">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O4">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P4">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q4">
-        <v>5.226046105326999</v>
+        <v>23.42860093299177</v>
       </c>
       <c r="R4">
-        <v>47.03441494794299</v>
+        <v>210.857408396926</v>
       </c>
       <c r="S4">
-        <v>0.0444713897685317</v>
+        <v>0.07402329178979833</v>
       </c>
       <c r="T4">
-        <v>0.0444713897685317</v>
+        <v>0.07402329178979833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H5">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I5">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J5">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N5">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O5">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P5">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q5">
-        <v>0.025418140932</v>
+        <v>0.0891737816148889</v>
       </c>
       <c r="R5">
-        <v>0.228763268388</v>
+        <v>0.802564034534</v>
       </c>
       <c r="S5">
-        <v>0.0002162973746875722</v>
+        <v>0.0002817469500359001</v>
       </c>
       <c r="T5">
-        <v>0.0002162973746875722</v>
+        <v>0.0002817469500359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.946664</v>
       </c>
       <c r="I6">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J6">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N6">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O6">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P6">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q6">
-        <v>3.810318350595556</v>
+        <v>4.450766134510221</v>
       </c>
       <c r="R6">
-        <v>34.29286515536</v>
+        <v>40.056895210592</v>
       </c>
       <c r="S6">
-        <v>0.03242415950728034</v>
+        <v>0.01406231474108478</v>
       </c>
       <c r="T6">
-        <v>0.03242415950728034</v>
+        <v>0.01406231474108478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.946664</v>
       </c>
       <c r="I7">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J7">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>65.548676</v>
       </c>
       <c r="O7">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P7">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q7">
         <v>43.31066131298489</v>
@@ -883,10 +883,10 @@
         <v>389.795951816864</v>
       </c>
       <c r="S7">
-        <v>0.368554976661864</v>
+        <v>0.1368411937678095</v>
       </c>
       <c r="T7">
-        <v>0.368554976661864</v>
+        <v>0.1368411937678095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.946664</v>
       </c>
       <c r="I8">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J8">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N8">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O8">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P8">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q8">
-        <v>41.64678670800622</v>
+        <v>143.6476803365636</v>
       </c>
       <c r="R8">
-        <v>374.821080372056</v>
+        <v>1292.829123029072</v>
       </c>
       <c r="S8">
-        <v>0.3543961241388173</v>
+        <v>0.4538586912164916</v>
       </c>
       <c r="T8">
-        <v>0.3543961241388173</v>
+        <v>0.4538586912164915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.946664</v>
       </c>
       <c r="I9">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J9">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N9">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O9">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P9">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q9">
-        <v>0.2025592336106667</v>
+        <v>0.5467508244497779</v>
       </c>
       <c r="R9">
-        <v>1.823033102496</v>
+        <v>4.920757420048001</v>
       </c>
       <c r="S9">
-        <v>0.001723691381125191</v>
+        <v>0.001727473865396985</v>
       </c>
       <c r="T9">
-        <v>0.001723691381125191</v>
+        <v>0.001727473865396985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H10">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I10">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J10">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N10">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O10">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P10">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q10">
-        <v>0.6009923425800001</v>
+        <v>1.570916574355555</v>
       </c>
       <c r="R10">
-        <v>5.408931083220001</v>
+        <v>14.1382491692</v>
       </c>
       <c r="S10">
-        <v>0.005114184639039991</v>
+        <v>0.004963352967321317</v>
       </c>
       <c r="T10">
-        <v>0.005114184639039991</v>
+        <v>0.004963352967321318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H11">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I11">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J11">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>65.548676</v>
       </c>
       <c r="O11">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P11">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q11">
-        <v>6.831286366692001</v>
+        <v>15.28667956182222</v>
       </c>
       <c r="R11">
-        <v>61.481577300228</v>
+        <v>137.5801160564</v>
       </c>
       <c r="S11">
-        <v>0.05813128941284145</v>
+        <v>0.04829867327282245</v>
       </c>
       <c r="T11">
-        <v>0.05813128941284145</v>
+        <v>0.04829867327282245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H12">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I12">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J12">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N12">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O12">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P12">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q12">
-        <v>6.568847429943</v>
+        <v>50.70105125468888</v>
       </c>
       <c r="R12">
-        <v>59.119626869487</v>
+        <v>456.3094612922</v>
       </c>
       <c r="S12">
-        <v>0.05589804768259583</v>
+        <v>0.1601913286162282</v>
       </c>
       <c r="T12">
-        <v>0.05589804768259583</v>
+        <v>0.1601913286162282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H13">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I13">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J13">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N13">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O13">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P13">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q13">
-        <v>0.031949180388</v>
+        <v>0.1929779966444445</v>
       </c>
       <c r="R13">
-        <v>0.287542623492</v>
+        <v>1.7368019698</v>
       </c>
       <c r="S13">
-        <v>0.0002718736928806666</v>
+        <v>0.0006097191460761415</v>
       </c>
       <c r="T13">
-        <v>0.0002718736928806666</v>
+        <v>0.0006097191460761414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H14">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I14">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J14">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N14">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O14">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P14">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q14">
-        <v>0.1433393709377778</v>
+        <v>0.5909764352093333</v>
       </c>
       <c r="R14">
-        <v>1.29005433844</v>
+        <v>5.318787916884</v>
       </c>
       <c r="S14">
-        <v>0.001219755988691416</v>
+        <v>0.001867205866432805</v>
       </c>
       <c r="T14">
-        <v>0.001219755988691417</v>
+        <v>0.001867205866432805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H15">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I15">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J15">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>65.548676</v>
       </c>
       <c r="O15">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P15">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q15">
-        <v>1.629292457028444</v>
+        <v>5.750825690625334</v>
       </c>
       <c r="R15">
-        <v>14.663632113256</v>
+        <v>51.757431215628</v>
       </c>
       <c r="S15">
-        <v>0.01386457341614037</v>
+        <v>0.0181698877089144</v>
       </c>
       <c r="T15">
-        <v>0.01386457341614037</v>
+        <v>0.0181698877089144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H16">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I16">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J16">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N16">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O16">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P16">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q16">
-        <v>1.566699592797111</v>
+        <v>19.07365866589933</v>
       </c>
       <c r="R16">
-        <v>14.100296335174</v>
+        <v>171.662927993094</v>
       </c>
       <c r="S16">
-        <v>0.01333193524076663</v>
+        <v>0.06026373512285467</v>
       </c>
       <c r="T16">
-        <v>0.01333193524076663</v>
+        <v>0.06026373512285466</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H17">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I17">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J17">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N17">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O17">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P17">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q17">
-        <v>0.007620022909333332</v>
+        <v>0.07259802996066668</v>
       </c>
       <c r="R17">
-        <v>0.068580206184</v>
+        <v>0.6533822696460001</v>
       </c>
       <c r="S17">
-        <v>6.484309591158875E-05</v>
+        <v>0.0002293754189809708</v>
       </c>
       <c r="T17">
-        <v>6.484309591158876E-05</v>
+        <v>0.0002293754189809708</v>
       </c>
     </row>
   </sheetData>
